--- a/DataGenerator/excel/role.xlsx
+++ b/DataGenerator/excel/role.xlsx
@@ -7,9 +7,11 @@
     <workbookView xWindow="240" yWindow="140" windowWidth="20380" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,29 +21,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id::int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sadf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>werwer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name::string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp::int</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ewrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgfgs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,31 +90,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +132,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,66 +452,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>123</v>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5645</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DataGenerator/excel/role.xlsx
+++ b/DataGenerator/excel/role.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,16 +63,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ewrw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgfgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗内形象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/player/player.png</t>
   </si>
 </sst>
 </file>
@@ -452,18 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +501,17 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,8 +521,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,14 +541,23 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -510,40 +565,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>5645</v>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/excel/role.xlsx
+++ b/DataGenerator/excel/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="20380" windowHeight="12060"/>
+    <workbookView xWindow="240" yWindow="140" windowWidth="23580" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,106 @@
   </si>
   <si>
     <t>res/player/player.png</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ski1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soilAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soilResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,19 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +611,41 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,8 +664,41 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,14 +717,47 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -575,6 +775,39 @@
       </c>
       <c r="F5" t="s">
         <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
